--- a/dict.xlsx
+++ b/dict.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>bald</t>
   </si>
@@ -128,9 +128,6 @@
     <t>щенок</t>
   </si>
   <si>
-    <t>He was bald</t>
-  </si>
-  <si>
     <t>using</t>
   </si>
   <si>
@@ -149,7 +146,25 @@
     <t>It's blue (Это голубое)</t>
   </si>
   <si>
-    <t>Pen is red (Ручка красная)</t>
+    <t>He was absolutely bald</t>
+  </si>
+  <si>
+    <t>Her skin is so tanned</t>
+  </si>
+  <si>
+    <t>This pen is red (Эта ручка красная)</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>дружелюбный</t>
+  </si>
+  <si>
+    <t>person,personality</t>
+  </si>
+  <si>
+    <t>He's very friendly</t>
   </si>
 </sst>
 </file>
@@ -501,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +541,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -540,7 +555,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -578,21 +593,24 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -600,10 +618,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -611,43 +629,46 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -655,10 +676,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -666,21 +687,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -688,12 +709,23 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -708,7 +740,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,29 +758,29 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/dict.xlsx
+++ b/dict.xlsx
@@ -1,21 +1,383 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\practicum\Языки\Английский\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="adjective" sheetId="1" r:id="rId1"/>
-    <sheet name="Тест" sheetId="2" r:id="rId2"/>
+    <sheet name="Learn" sheetId="2" r:id="rId1"/>
+    <sheet name="Old" sheetId="3" r:id="rId2"/>
+    <sheet name="Other" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="396">
+  <si>
+    <t>accordingly</t>
+  </si>
+  <si>
+    <t>соответственно</t>
+  </si>
+  <si>
+    <t>either</t>
+  </si>
+  <si>
+    <t>либо</t>
+  </si>
+  <si>
+    <t>whether</t>
+  </si>
+  <si>
+    <t>будь то</t>
+  </si>
+  <si>
+    <t>roughly</t>
+  </si>
+  <si>
+    <t>грубо</t>
+  </si>
+  <si>
+    <t>несмотря на то что</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
+    <t>appropriate</t>
+  </si>
+  <si>
+    <t>соответствующий</t>
+  </si>
+  <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>следовательно</t>
+  </si>
+  <si>
+    <t>suppose</t>
+  </si>
+  <si>
+    <t>предполагать</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>пока не</t>
+  </si>
+  <si>
+    <t>dutiful</t>
+  </si>
+  <si>
+    <t>послушный</t>
+  </si>
+  <si>
+    <t>tedious</t>
+  </si>
+  <si>
+    <t>скучный</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>бы</t>
+  </si>
+  <si>
+    <t>subtlety</t>
+  </si>
+  <si>
+    <t>тонокость</t>
+  </si>
+  <si>
+    <t>properly</t>
+  </si>
+  <si>
+    <t>правильно</t>
+  </si>
+  <si>
+    <t>confuse</t>
+  </si>
+  <si>
+    <t>путать</t>
+  </si>
+  <si>
+    <t>whatever</t>
+  </si>
+  <si>
+    <t>что бы ни</t>
+  </si>
+  <si>
+    <t>crops up</t>
+  </si>
+  <si>
+    <t>возникает</t>
+  </si>
+  <si>
+    <t>corresponding</t>
+  </si>
+  <si>
+    <t>persuade</t>
+  </si>
+  <si>
+    <t>убеждать</t>
+  </si>
+  <si>
+    <t>curtailed</t>
+  </si>
+  <si>
+    <t>урезаный</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>скорее</t>
+  </si>
+  <si>
+    <t>constitute</t>
+  </si>
+  <si>
+    <t>составляют</t>
+  </si>
+  <si>
+    <t>pile</t>
+  </si>
+  <si>
+    <t>куча, груда, стэк</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>в пределах, внутри</t>
+  </si>
+  <si>
+    <t>silly</t>
+  </si>
+  <si>
+    <t>глупый</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>даже</t>
+  </si>
+  <si>
+    <t>subsequent</t>
+  </si>
+  <si>
+    <t>последующий</t>
+  </si>
+  <si>
+    <t>recap</t>
+  </si>
+  <si>
+    <t>резюмировать</t>
+  </si>
+  <si>
+    <t>circumvent</t>
+  </si>
+  <si>
+    <t>обойти</t>
+  </si>
+  <si>
+    <t>treated</t>
+  </si>
+  <si>
+    <t>обработанный</t>
+  </si>
+  <si>
+    <t>ought</t>
+  </si>
+  <si>
+    <t>должен</t>
+  </si>
+  <si>
+    <t>prove</t>
+  </si>
+  <si>
+    <t>доказывать</t>
+  </si>
+  <si>
+    <t>consecutive</t>
+  </si>
+  <si>
+    <t>последовательный</t>
+  </si>
+  <si>
+    <t>arbitrary</t>
+  </si>
+  <si>
+    <t>произвольный</t>
+  </si>
+  <si>
+    <t>omit</t>
+  </si>
+  <si>
+    <t>пропускать</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>стоит (цена)</t>
+  </si>
+  <si>
+    <t>complicated</t>
+  </si>
+  <si>
+    <t>сложный</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>рассмотреть возможность</t>
+  </si>
+  <si>
+    <t>lump</t>
+  </si>
+  <si>
+    <t>кусок</t>
+  </si>
+  <si>
+    <t>indistinguishable</t>
+  </si>
+  <si>
+    <t>неразличимый</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>в итоге</t>
+  </si>
+  <si>
+    <t>inappropriate</t>
+  </si>
+  <si>
+    <t>несоответствующий</t>
+  </si>
+  <si>
+    <t>distinguish</t>
+  </si>
+  <si>
+    <t>выделять/отличать</t>
+  </si>
+  <si>
+    <t>wits</t>
+  </si>
+  <si>
+    <t>остроумие</t>
+  </si>
+  <si>
+    <t>further</t>
+  </si>
+  <si>
+    <t>дальше</t>
+  </si>
+  <si>
+    <t>obviously</t>
+  </si>
+  <si>
+    <t>очевидно</t>
+  </si>
+  <si>
+    <t>thus</t>
+  </si>
+  <si>
+    <t>таким образом / поэтому</t>
+  </si>
+  <si>
+    <t>compelled</t>
+  </si>
+  <si>
+    <t>вынужденный</t>
+  </si>
+  <si>
+    <t>straight away</t>
+  </si>
+  <si>
+    <t>сразу</t>
+  </si>
+  <si>
+    <t>thoroughly</t>
+  </si>
+  <si>
+    <t>тщательно</t>
+  </si>
+  <si>
+    <t>slightly</t>
+  </si>
+  <si>
+    <t>немного</t>
+  </si>
+  <si>
+    <t>awkward</t>
+  </si>
+  <si>
+    <t>неуклюже</t>
+  </si>
+  <si>
+    <t>concerned</t>
+  </si>
+  <si>
+    <t>обеспокоенный</t>
+  </si>
+  <si>
+    <t>peculiar</t>
+  </si>
+  <si>
+    <t>своеобразный</t>
+  </si>
+  <si>
+    <t>tangible</t>
+  </si>
+  <si>
+    <t>заметный</t>
+  </si>
+  <si>
+    <t>refinement</t>
+  </si>
+  <si>
+    <t>утонченность</t>
+  </si>
+  <si>
+    <t>eradicator</t>
+  </si>
+  <si>
+    <t>искоренитель</t>
+  </si>
+  <si>
+    <t>vice versa</t>
+  </si>
+  <si>
+    <t>наоборт</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
   <si>
     <t>bald</t>
   </si>
@@ -56,115 +418,806 @@
     <t>tanned</t>
   </si>
   <si>
+    <t>загорелый</t>
+  </si>
+  <si>
     <t>pale</t>
   </si>
   <si>
     <t>бледный</t>
   </si>
   <si>
-    <t>загорелый</t>
-  </si>
-  <si>
     <t>shy</t>
   </si>
   <si>
     <t>застенчивый</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ru</t>
+    <t>young</t>
+  </si>
+  <si>
+    <t>молодой</t>
+  </si>
+  <si>
+    <t>middle-aged</t>
+  </si>
+  <si>
+    <t>среднего возраста</t>
+  </si>
+  <si>
+    <t>old-aged</t>
+  </si>
+  <si>
+    <t>престарелый</t>
+  </si>
+  <si>
+    <t>соревнование</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>how come?</t>
+  </si>
+  <si>
+    <t>как так?</t>
+  </si>
+  <si>
+    <t>keen</t>
+  </si>
+  <si>
+    <t>увлеченный</t>
+  </si>
+  <si>
+    <t>using</t>
   </si>
   <si>
     <t>tag</t>
   </si>
   <si>
-    <t>person, appearance</t>
-  </si>
-  <si>
-    <t>person, personality</t>
-  </si>
-  <si>
-    <t>person, age</t>
-  </si>
-  <si>
-    <t>young</t>
-  </si>
-  <si>
-    <t>молодой</t>
-  </si>
-  <si>
-    <t>middle-aged</t>
-  </si>
-  <si>
-    <t>среднего возраста</t>
-  </si>
-  <si>
-    <t>old-aged</t>
-  </si>
-  <si>
-    <t>престарелый</t>
-  </si>
-  <si>
-    <t>pet</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>кот</t>
-  </si>
-  <si>
-    <t>собака</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>puppy</t>
-  </si>
-  <si>
-    <t>щенок</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>голубой</t>
-  </si>
-  <si>
-    <t>красный</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>It's blue (Это голубое)</t>
-  </si>
-  <si>
-    <t>He was absolutely bald</t>
-  </si>
-  <si>
-    <t>Her skin is so tanned</t>
-  </si>
-  <si>
-    <t>This pen is red (Эта ручка красная)</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>дружелюбный</t>
-  </si>
-  <si>
-    <t>person,personality</t>
-  </si>
-  <si>
-    <t>He's very friendly</t>
+    <t>to be keen on something - сильное увлечён чемто
+What is she keen on? - чем она увлекается</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>ценить</t>
+  </si>
+  <si>
+    <t>aunt</t>
+  </si>
+  <si>
+    <t>тётка</t>
+  </si>
+  <si>
+    <t>aversion</t>
+  </si>
+  <si>
+    <t>антипатия, отвращение</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>вина</t>
+  </si>
+  <si>
+    <t>brought</t>
+  </si>
+  <si>
+    <t>привёл</t>
+  </si>
+  <si>
+    <t>bunch</t>
+  </si>
+  <si>
+    <t>гроздь, пучок</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>дешёво</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>церковь</t>
+  </si>
+  <si>
+    <t>conscience</t>
+  </si>
+  <si>
+    <t>совесть</t>
+  </si>
+  <si>
+    <t>dues</t>
+  </si>
+  <si>
+    <t>сборы пошлины</t>
+  </si>
+  <si>
+    <t>embarrassed</t>
+  </si>
+  <si>
+    <t>смущённый</t>
+  </si>
+  <si>
+    <t>former</t>
+  </si>
+  <si>
+    <t>бывший</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>довольный</t>
+  </si>
+  <si>
+    <t>gorgeous</t>
+  </si>
+  <si>
+    <t>великолепный</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>угадай</t>
+  </si>
+  <si>
+    <t>knee</t>
+  </si>
+  <si>
+    <t>колено</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>имею ввиду</t>
+  </si>
+  <si>
+    <t>melon</t>
+  </si>
+  <si>
+    <t>дыня</t>
+  </si>
+  <si>
+    <t>miserable</t>
+  </si>
+  <si>
+    <t>несчастный</t>
+  </si>
+  <si>
+    <t>misery</t>
+  </si>
+  <si>
+    <t>нищета</t>
+  </si>
+  <si>
+    <t>poultry</t>
+  </si>
+  <si>
+    <t>домашняя птица</t>
+  </si>
+  <si>
+    <t>pray</t>
+  </si>
+  <si>
+    <t>молиться</t>
+  </si>
+  <si>
+    <t>preacher</t>
+  </si>
+  <si>
+    <t>проповедник</t>
+  </si>
+  <si>
+    <t>pretend</t>
+  </si>
+  <si>
+    <t>делать вид</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>вероятно</t>
+  </si>
+  <si>
+    <t>ruined</t>
+  </si>
+  <si>
+    <t>разрушенный</t>
+  </si>
+  <si>
+    <t>shoplifting</t>
+  </si>
+  <si>
+    <t>воровство в магазинах</t>
+  </si>
+  <si>
+    <t>spent</t>
+  </si>
+  <si>
+    <t>потрачено (провел время)</t>
+  </si>
+  <si>
+    <t>staged</t>
+  </si>
+  <si>
+    <t>поставил (срежиссировал)</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>шагать</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>застрял</t>
+  </si>
+  <si>
+    <t>suitcase</t>
+  </si>
+  <si>
+    <t>чемодан</t>
+  </si>
+  <si>
+    <t>supposed</t>
+  </si>
+  <si>
+    <t>предполагаемый</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>сладкий (милая)</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>жёсткий</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>ствол (оружия)</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>тепло</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>ностить (ношение)</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>прямо (по дороге)</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>важно</t>
+  </si>
+  <si>
+    <t>unimportant</t>
+  </si>
+  <si>
+    <t>не важно</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>сложно</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>легко</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>экзамен</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>безполезный</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>правда</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>отлично</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>блестяще</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>делает</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>упражнение</t>
+  </si>
+  <si>
+    <t>depend</t>
+  </si>
+  <si>
+    <t>зависит</t>
+  </si>
+  <si>
+    <t>complain</t>
+  </si>
+  <si>
+    <t>жаловаться</t>
+  </si>
+  <si>
+    <t>refuse</t>
+  </si>
+  <si>
+    <t>отказываться/отвергать</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>беспокоить</t>
+  </si>
+  <si>
+    <t>prefer</t>
+  </si>
+  <si>
+    <t>предпочитать</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>Как дела?</t>
+  </si>
+  <si>
+    <t>How are you?
+How is it going?
+How are things?
+What's up?</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t>юрист</t>
+  </si>
+  <si>
+    <t>retired</t>
+  </si>
+  <si>
+    <t>на пенсии</t>
+  </si>
+  <si>
+    <t>invent</t>
+  </si>
+  <si>
+    <t>изобретатель</t>
+  </si>
+  <si>
+    <t>scarf</t>
+  </si>
+  <si>
+    <t>шарф</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>женщина</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>женщины</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>мужчина / человек</t>
+  </si>
+  <si>
+    <t>мужчины / люди</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>ремень</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>пальто</t>
+  </si>
+  <si>
+    <t>гора</t>
+  </si>
+  <si>
+    <t>sights</t>
+  </si>
+  <si>
+    <t>достопримечательности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an ordinary day - обычный день </t>
+  </si>
+  <si>
+    <t>ordinary</t>
+  </si>
+  <si>
+    <t>обычный</t>
+  </si>
+  <si>
+    <t>oсcasionaly</t>
+  </si>
+  <si>
+    <t>иногда</t>
+  </si>
+  <si>
+    <t>oсcasionaly / sometimes</t>
+  </si>
+  <si>
+    <t>seldom / rarely</t>
+  </si>
+  <si>
+    <t>редко</t>
+  </si>
+  <si>
+    <t>seldom</t>
+  </si>
+  <si>
+    <t>trivial</t>
+  </si>
+  <si>
+    <t>банально / тривиально</t>
+  </si>
+  <si>
+    <t>in a split second - в мгновение ока (мгновенно)</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>раскол</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>пустое / не нужное</t>
+  </si>
+  <si>
+    <t>fluently</t>
+  </si>
+  <si>
+    <t>бегло (разговаривать)</t>
+  </si>
+  <si>
+    <t>receipt</t>
+  </si>
+  <si>
+    <t>чек</t>
+  </si>
+  <si>
+    <t>porridge</t>
+  </si>
+  <si>
+    <t>каша</t>
+  </si>
+  <si>
+    <t>canned</t>
+  </si>
+  <si>
+    <t>консервированные</t>
+  </si>
+  <si>
+    <t>marple</t>
+  </si>
+  <si>
+    <t>клиновый</t>
+  </si>
+  <si>
+    <t>stews</t>
+  </si>
+  <si>
+    <t>похлёбка тушеное</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>рецепт</t>
+  </si>
+  <si>
+    <t>dumpling</t>
+  </si>
+  <si>
+    <t>пельмени</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ветчина, рулька </t>
+  </si>
+  <si>
+    <t>a can of cola / a cola can / a wather bottle</t>
+  </si>
+  <si>
+    <t>jar</t>
+  </si>
+  <si>
+    <t>банка (кофе)</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>железная банка</t>
+  </si>
+  <si>
+    <t>fridge</t>
+  </si>
+  <si>
+    <t>холодильник</t>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>жажда</t>
+  </si>
+  <si>
+    <t>detached [house]</t>
+  </si>
+  <si>
+    <t>отдельный</t>
+  </si>
+  <si>
+    <t>attic</t>
+  </si>
+  <si>
+    <t>чердак</t>
+  </si>
+  <si>
+    <t>cellar</t>
+  </si>
+  <si>
+    <t>подвал</t>
+  </si>
+  <si>
+    <t>hall</t>
+  </si>
+  <si>
+    <t>прихожая</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>кабинет</t>
+  </si>
+  <si>
+    <t>living room</t>
+  </si>
+  <si>
+    <t>luxurious</t>
+  </si>
+  <si>
+    <t>роскошный</t>
+  </si>
+  <si>
+    <t>гостиная</t>
+  </si>
+  <si>
+    <t>cupboard</t>
+  </si>
+  <si>
+    <t>шкаф (для посуды)</t>
+  </si>
+  <si>
+    <t>dryer</t>
+  </si>
+  <si>
+    <t>сушилка</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>раковина (для посуды)</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>важный, ценный</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>определённо/точно</t>
+  </si>
+  <si>
+    <t>to be in a hurry</t>
+  </si>
+  <si>
+    <t>торопиться</t>
+  </si>
+  <si>
+    <t>hurry</t>
+  </si>
+  <si>
+    <t>bookshelves</t>
+  </si>
+  <si>
+    <t>книжные полки</t>
+  </si>
+  <si>
+    <t>vacuum cleaner</t>
+  </si>
+  <si>
+    <t>пылесос</t>
+  </si>
+  <si>
+    <t>stationers</t>
+  </si>
+  <si>
+    <t>канцелярские принадлежности</t>
+  </si>
+  <si>
+    <t>newsagents</t>
+  </si>
+  <si>
+    <t>газетная лавка</t>
+  </si>
+  <si>
+    <t>deprament store</t>
+  </si>
+  <si>
+    <t>гипермаркет</t>
+  </si>
+  <si>
+    <t>exciting</t>
+  </si>
+  <si>
+    <t>захватывающе</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>ужасно</t>
+  </si>
+  <si>
+    <t>slim</t>
+  </si>
+  <si>
+    <t>стройный</t>
+  </si>
+  <si>
+    <t>beard</t>
+  </si>
+  <si>
+    <t>бородатый</t>
+  </si>
+  <si>
+    <t>set of for</t>
+  </si>
+  <si>
+    <t>отправиться</t>
+  </si>
+  <si>
+    <t>noticed</t>
+  </si>
+  <si>
+    <t>обратил внимание</t>
+  </si>
+  <si>
+    <t>handed</t>
+  </si>
+  <si>
+    <t>сдал (в багаж)</t>
+  </si>
+  <si>
+    <t>outshine</t>
+  </si>
+  <si>
+    <t>затмевать/затмила</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>people, personality</t>
+  </si>
+  <si>
+    <t>people, age</t>
+  </si>
+  <si>
+    <t>hangry</t>
+  </si>
+  <si>
+    <t>голодный</t>
+  </si>
+  <si>
+    <t>possessive</t>
+  </si>
+  <si>
+    <t>притяжательный падеж</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>глагол</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>имя прилагательное</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>phrase</t>
   </si>
 </sst>
 </file>
@@ -177,6 +1230,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,15 +1263,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -240,39 +1297,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,382 +1408,910 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
+        <v>261</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>392</v>
+      </c>
+      <c r="B20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" t="s">
+        <v>293</v>
+      </c>
+      <c r="D35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>298</v>
+      </c>
+      <c r="B37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>306</v>
+      </c>
+      <c r="B41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>308</v>
+      </c>
+      <c r="B42" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B43" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>312</v>
+      </c>
+      <c r="B44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>314</v>
+      </c>
+      <c r="B45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>316</v>
+      </c>
+      <c r="B46" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" t="s">
+        <v>322</v>
+      </c>
+      <c r="C48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>323</v>
+      </c>
+      <c r="B49" t="s">
+        <v>324</v>
+      </c>
+      <c r="C49" t="s">
+        <v>383</v>
+      </c>
+      <c r="D49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>327</v>
+      </c>
+      <c r="B50" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>386</v>
+      </c>
+      <c r="B51" t="s">
+        <v>387</v>
+      </c>
+      <c r="C51" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>325</v>
+      </c>
+      <c r="B52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>329</v>
+      </c>
+      <c r="B53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>333</v>
+      </c>
+      <c r="B55" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>337</v>
+      </c>
+      <c r="B56" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>335</v>
+      </c>
+      <c r="B57" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>340</v>
+      </c>
+      <c r="B58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>339</v>
+      </c>
+      <c r="B59" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>343</v>
+      </c>
+      <c r="B60" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>345</v>
+      </c>
+      <c r="B61" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>347</v>
+      </c>
+      <c r="B62" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>349</v>
+      </c>
+      <c r="B63" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>351</v>
+      </c>
+      <c r="B64" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65" t="s">
+        <v>354</v>
+      </c>
+      <c r="D65" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>356</v>
+      </c>
+      <c r="B66" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>358</v>
+      </c>
+      <c r="B67" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>360</v>
+      </c>
+      <c r="B68" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>362</v>
+      </c>
+      <c r="B69" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>364</v>
+      </c>
+      <c r="B70" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>366</v>
+      </c>
+      <c r="B71" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" t="s">
+        <v>371</v>
+      </c>
+      <c r="C73" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>372</v>
+      </c>
+      <c r="B74" t="s">
+        <v>373</v>
+      </c>
+      <c r="C74" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>374</v>
+      </c>
+      <c r="B75" t="s">
+        <v>375</v>
+      </c>
+      <c r="C75" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>378</v>
+      </c>
+      <c r="B77" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>380</v>
+      </c>
+      <c r="B78" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -737,54 +2322,965 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C59">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>